--- a/leading.xlsx
+++ b/leading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndkan\PycharmProjects\newBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD83C8B-E635-421F-91A2-1C16788A2DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D1BFC-D9B5-4C1F-8CC4-F5F9FFD4662D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>nikitao_o</t>
+  </si>
+  <si>
+    <t>fffff7373</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,10 +481,27 @@
         <v>745071860</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1631545090</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/leading.xlsx
+++ b/leading.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndkan\PycharmProjects\newBot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D1BFC-D9B5-4C1F-8CC4-F5F9FFD4662D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Timetable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -40,17 +34,26 @@
     <t>Никита</t>
   </si>
   <si>
+    <t>Лика</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
     <t>nikitao_o</t>
   </si>
   <si>
-    <t>fffff7373</t>
+    <t>liikaovs</t>
+  </si>
+  <si>
+    <t>SPB_Alexandr_Petrov1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,25 +112,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,9 +160,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,27 +194,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,27 +228,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -444,16 +403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,12 +427,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>745071860</v>
@@ -487,21 +444,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>495361789</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>1631545090</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>376865554</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/leading.xlsx
+++ b/leading.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndkan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC982E7-5060-4196-A662-E45B2423E77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timetable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -31,29 +37,107 @@
     <t>Month</t>
   </si>
   <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Evgeniya</t>
+  </si>
+  <si>
+    <t>Lesia</t>
+  </si>
+  <si>
+    <t>Семен</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Вероника</t>
+  </si>
+  <si>
     <t>Никита</t>
   </si>
   <si>
+    <t>лера</t>
+  </si>
+  <si>
+    <t>Лёша</t>
+  </si>
+  <si>
+    <t>Люба</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>АНЭТ</t>
+  </si>
+  <si>
+    <t>Амырак</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
     <t>Лика</t>
   </si>
   <si>
-    <t>Александр</t>
+    <t>Kirill Spassky</t>
+  </si>
+  <si>
+    <t>podolskaya_maria</t>
+  </si>
+  <si>
+    <t>EvgenyaRitskay</t>
+  </si>
+  <si>
+    <t>lesiaromanova</t>
+  </si>
+  <si>
+    <t>poprotsky_semen</t>
+  </si>
+  <si>
+    <t>Alex_ifes</t>
+  </si>
+  <si>
+    <t>veronikalazareva1</t>
   </si>
   <si>
     <t>nikitao_o</t>
   </si>
   <si>
+    <t>ler_stta</t>
+  </si>
+  <si>
+    <t>povaleshka</t>
+  </si>
+  <si>
+    <t>liubasik_112</t>
+  </si>
+  <si>
+    <t>beloemma</t>
+  </si>
+  <si>
+    <t>anetta_fim</t>
+  </si>
+  <si>
+    <t>Itsamyrak</t>
+  </si>
+  <si>
+    <t>SPB_Alexandr_Petrov1</t>
+  </si>
+  <si>
     <t>liikaovs</t>
   </si>
   <si>
-    <t>SPB_Alexandr_Petrov1</t>
+    <t>kirillspassky</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,17 +196,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,9 +252,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,9 +286,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,9 +338,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,14 +531,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="I1:K18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,55 +561,276 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>745071860</v>
+        <v>203092273</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>495361789</v>
+        <v>176242220</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>303948329</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>781734983</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>361051552</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>566308551</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>745071860</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>886549245</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>1060137561</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>290445501</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>463685543</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>558689593</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>472002912</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>376865554</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>495361789</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>657679965</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/leading.xlsx
+++ b/leading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndkan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC982E7-5060-4196-A662-E45B2423E77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A693D849-4D3E-4AA1-B115-43B745B84D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,14 +535,10 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="I1:K18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -572,7 +568,7 @@
         <v>203092273</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -589,7 +585,7 @@
         <v>176242220</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -606,7 +602,7 @@
         <v>303948329</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -623,7 +619,7 @@
         <v>781734983</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -640,7 +636,7 @@
         <v>361051552</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>9</v>
@@ -657,7 +653,7 @@
         <v>566308551</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>9</v>
@@ -674,7 +670,7 @@
         <v>745071860</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -691,7 +687,7 @@
         <v>886549245</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>9</v>
@@ -708,7 +704,7 @@
         <v>1060137561</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -725,7 +721,7 @@
         <v>290445501</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -742,7 +738,7 @@
         <v>463685543</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -759,7 +755,7 @@
         <v>558689593</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -776,10 +772,10 @@
         <v>472002912</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -793,10 +789,10 @@
         <v>376865554</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -810,10 +806,10 @@
         <v>495361789</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">

--- a/leading.xlsx
+++ b/leading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndkan\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AC0274-C200-4E12-A851-7BB92BD57E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1AE41E-4427-4827-B715-B116F72FA5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,10 +562,10 @@
         <v>203092273</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -579,10 +579,10 @@
         <v>176242220</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -596,10 +596,10 @@
         <v>303948329</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -613,10 +613,10 @@
         <v>781734983</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -630,10 +630,10 @@
         <v>361051552</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -647,10 +647,10 @@
         <v>566308551</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -664,10 +664,10 @@
         <v>745071860</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -681,10 +681,10 @@
         <v>886549245</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -698,10 +698,10 @@
         <v>1060137561</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -715,10 +715,10 @@
         <v>290445501</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -732,10 +732,10 @@
         <v>463685543</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -749,10 +749,10 @@
         <v>558689593</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>472002912</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -783,7 +783,7 @@
         <v>376865554</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>657679965</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>10</v>
